--- a/Data/Campaign 4_Toys.xlsx
+++ b/Data/Campaign 4_Toys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarshvirendranigam/Desktop/Summer 2020/Visualization of Complex Data/Project/Project 2/Raw Data/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E295210C-A51D-BD48-AB4D-0BA59DFF414C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D06266-376B-1E44-8F83-7A4685257B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trended" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>Revenue</t>
   </si>
@@ -286,18 +286,6 @@
   </si>
   <si>
     <t>% ATC</t>
-  </si>
-  <si>
-    <t>Wednesday before Thanksgiving 2019</t>
-  </si>
-  <si>
-    <t>Cyber Monday 2019</t>
-  </si>
-  <si>
-    <t>Thanksgiving 2019</t>
-  </si>
-  <si>
-    <t>Black Friday 2019</t>
   </si>
   <si>
     <t>Mobile Phone</t>
@@ -313,9 +301,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,21 +779,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1167,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225632CE-3803-BB46-94A4-2AA03D239FCB}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1178,17 +1162,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>43770</v>
       </c>
       <c r="B2">
@@ -1202,7 +1186,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>43771</v>
       </c>
       <c r="B3">
@@ -1216,7 +1200,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>43772</v>
       </c>
       <c r="B4">
@@ -1230,7 +1214,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>43773</v>
       </c>
       <c r="B5">
@@ -1244,7 +1228,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>43774</v>
       </c>
       <c r="B6">
@@ -1258,7 +1242,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>43775</v>
       </c>
       <c r="B7">
@@ -1272,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>43776</v>
       </c>
       <c r="B8">
@@ -1286,7 +1270,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>43777</v>
       </c>
       <c r="B9">
@@ -1300,7 +1284,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>43778</v>
       </c>
       <c r="B10">
@@ -1314,7 +1298,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>43779</v>
       </c>
       <c r="B11">
@@ -1328,7 +1312,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>43780</v>
       </c>
       <c r="B12">
@@ -1342,7 +1326,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>43781</v>
       </c>
       <c r="B13">
@@ -1356,7 +1340,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>43782</v>
       </c>
       <c r="B14">
@@ -1370,7 +1354,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>43783</v>
       </c>
       <c r="B15">
@@ -1384,7 +1368,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>43784</v>
       </c>
       <c r="B16">
@@ -1398,7 +1382,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>43785</v>
       </c>
       <c r="B17">
@@ -1412,7 +1396,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>43786</v>
       </c>
       <c r="B18">
@@ -1426,7 +1410,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>43787</v>
       </c>
       <c r="B19">
@@ -1440,7 +1424,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>43788</v>
       </c>
       <c r="B20">
@@ -1454,7 +1438,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>43789</v>
       </c>
       <c r="B21">
@@ -1468,7 +1452,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>43790</v>
       </c>
       <c r="B22">
@@ -1482,7 +1466,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>43791</v>
       </c>
       <c r="B23">
@@ -1496,7 +1480,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>43792</v>
       </c>
       <c r="B24">
@@ -1510,7 +1494,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>43793</v>
       </c>
       <c r="B25">
@@ -1524,7 +1508,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>43794</v>
       </c>
       <c r="B26">
@@ -1538,7 +1522,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>43795</v>
       </c>
       <c r="B27">
@@ -1552,7 +1536,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>43796</v>
       </c>
       <c r="B28">
@@ -1566,7 +1550,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>43797</v>
       </c>
       <c r="B29">
@@ -1580,7 +1564,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="4">
         <v>43798</v>
       </c>
       <c r="B30">
@@ -1594,7 +1578,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="4">
         <v>43799</v>
       </c>
       <c r="B31">
@@ -1608,7 +1592,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>43800</v>
       </c>
       <c r="B32">
@@ -1622,7 +1606,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>43801</v>
       </c>
       <c r="B33">
@@ -1636,7 +1620,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>43802</v>
       </c>
       <c r="B34">
@@ -1650,7 +1634,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>43803</v>
       </c>
       <c r="B35">
@@ -1664,7 +1648,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>43804</v>
       </c>
       <c r="B36">
@@ -1678,7 +1662,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>43805</v>
       </c>
       <c r="B37">
@@ -1692,7 +1676,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="4">
         <v>43806</v>
       </c>
       <c r="B38">
@@ -1706,7 +1690,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="4">
         <v>43807</v>
       </c>
       <c r="B39">
@@ -1720,7 +1704,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="4">
         <v>43808</v>
       </c>
       <c r="B40">
@@ -1734,7 +1718,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="4">
         <v>43809</v>
       </c>
       <c r="B41">
@@ -1748,7 +1732,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="4">
         <v>43810</v>
       </c>
       <c r="B42">
@@ -1762,7 +1746,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="4">
         <v>43811</v>
       </c>
       <c r="B43">
@@ -1776,7 +1760,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="4">
         <v>43812</v>
       </c>
       <c r="B44">
@@ -1790,7 +1774,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="4">
         <v>43813</v>
       </c>
       <c r="B45">
@@ -1804,7 +1788,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="4">
         <v>43814</v>
       </c>
       <c r="B46">
@@ -1818,7 +1802,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="4">
         <v>43815</v>
       </c>
       <c r="B47">
@@ -1832,7 +1816,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="4">
         <v>43816</v>
       </c>
       <c r="B48">
@@ -1846,7 +1830,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="4">
         <v>43817</v>
       </c>
       <c r="B49">
@@ -1860,7 +1844,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="4">
         <v>43818</v>
       </c>
       <c r="B50">
@@ -1874,7 +1858,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>43819</v>
       </c>
       <c r="B51">
@@ -1888,7 +1872,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>43820</v>
       </c>
       <c r="B52">
@@ -1902,7 +1886,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="4">
         <v>43821</v>
       </c>
       <c r="B53">
@@ -1916,7 +1900,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="4">
         <v>43822</v>
       </c>
       <c r="B54">
@@ -1930,7 +1914,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="4">
         <v>43823</v>
       </c>
       <c r="B55">
@@ -1944,7 +1928,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="4">
         <v>43824</v>
       </c>
       <c r="B56">
@@ -1958,7 +1942,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="4">
         <v>43825</v>
       </c>
       <c r="B57">
@@ -1972,7 +1956,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="4">
         <v>43826</v>
       </c>
       <c r="B58">
@@ -1986,7 +1970,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="4">
         <v>43827</v>
       </c>
       <c r="B59">
@@ -2000,7 +1984,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="4">
         <v>43828</v>
       </c>
       <c r="B60">
@@ -2014,7 +1998,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="4">
         <v>43829</v>
       </c>
       <c r="B61">
@@ -2028,7 +2012,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="4">
         <v>43830</v>
       </c>
       <c r="B62">
@@ -2050,14 +2034,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -2071,7 +2058,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>43770</v>
       </c>
       <c r="B2">
@@ -2085,7 +2072,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>43771</v>
       </c>
       <c r="B3">
@@ -2099,7 +2086,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>43772</v>
       </c>
       <c r="B4">
@@ -2113,7 +2100,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>43773</v>
       </c>
       <c r="B5">
@@ -2127,7 +2114,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>43774</v>
       </c>
       <c r="B6">
@@ -2141,7 +2128,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>43775</v>
       </c>
       <c r="B7">
@@ -2155,7 +2142,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>43776</v>
       </c>
       <c r="B8">
@@ -2169,7 +2156,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>43777</v>
       </c>
       <c r="B9">
@@ -2183,7 +2170,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>43778</v>
       </c>
       <c r="B10">
@@ -2197,7 +2184,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>43779</v>
       </c>
       <c r="B11">
@@ -2211,7 +2198,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>43780</v>
       </c>
       <c r="B12">
@@ -2225,7 +2212,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>43781</v>
       </c>
       <c r="B13">
@@ -2239,7 +2226,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>43782</v>
       </c>
       <c r="B14">
@@ -2253,7 +2240,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>43783</v>
       </c>
       <c r="B15">
@@ -2267,7 +2254,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>43784</v>
       </c>
       <c r="B16">
@@ -2281,7 +2268,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>43785</v>
       </c>
       <c r="B17">
@@ -2295,7 +2282,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>43786</v>
       </c>
       <c r="B18">
@@ -2309,7 +2296,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>43787</v>
       </c>
       <c r="B19">
@@ -2323,7 +2310,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>43788</v>
       </c>
       <c r="B20">
@@ -2337,7 +2324,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>43789</v>
       </c>
       <c r="B21">
@@ -2351,7 +2338,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>43790</v>
       </c>
       <c r="B22">
@@ -2365,7 +2352,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>43791</v>
       </c>
       <c r="B23">
@@ -2379,7 +2366,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>43792</v>
       </c>
       <c r="B24">
@@ -2393,7 +2380,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>43793</v>
       </c>
       <c r="B25">
@@ -2407,7 +2394,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>43794</v>
       </c>
       <c r="B26">
@@ -2421,7 +2408,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>43795</v>
       </c>
       <c r="B27">
@@ -2435,7 +2422,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>43796</v>
       </c>
       <c r="B28">
@@ -2449,7 +2436,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>43797</v>
       </c>
       <c r="B29">
@@ -2463,7 +2450,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>43798</v>
       </c>
       <c r="B30">
@@ -2477,7 +2464,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>43799</v>
       </c>
       <c r="B31">
@@ -2491,7 +2478,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>43800</v>
       </c>
       <c r="B32">
@@ -2505,7 +2492,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>43801</v>
       </c>
       <c r="B33">
@@ -2519,7 +2506,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>43802</v>
       </c>
       <c r="B34">
@@ -2533,7 +2520,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>43803</v>
       </c>
       <c r="B35">
@@ -2547,7 +2534,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>43804</v>
       </c>
       <c r="B36">
@@ -2561,7 +2548,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>43805</v>
       </c>
       <c r="B37">
@@ -2575,7 +2562,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>43806</v>
       </c>
       <c r="B38">
@@ -2589,7 +2576,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>43807</v>
       </c>
       <c r="B39">
@@ -2603,7 +2590,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>43808</v>
       </c>
       <c r="B40">
@@ -2617,7 +2604,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>43809</v>
       </c>
       <c r="B41">
@@ -2631,7 +2618,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>43810</v>
       </c>
       <c r="B42">
@@ -2645,7 +2632,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>43811</v>
       </c>
       <c r="B43">
@@ -2659,7 +2646,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>43812</v>
       </c>
       <c r="B44">
@@ -2673,7 +2660,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>43813</v>
       </c>
       <c r="B45">
@@ -2687,7 +2674,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>43814</v>
       </c>
       <c r="B46">
@@ -2701,7 +2688,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>43815</v>
       </c>
       <c r="B47">
@@ -2715,7 +2702,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>43816</v>
       </c>
       <c r="B48">
@@ -2729,7 +2716,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>43817</v>
       </c>
       <c r="B49">
@@ -2743,7 +2730,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>43818</v>
       </c>
       <c r="B50">
@@ -2757,7 +2744,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>43819</v>
       </c>
       <c r="B51">
@@ -2771,7 +2758,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>43820</v>
       </c>
       <c r="B52">
@@ -2785,7 +2772,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>43821</v>
       </c>
       <c r="B53">
@@ -2799,7 +2786,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>43822</v>
       </c>
       <c r="B54">
@@ -2813,7 +2800,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>43823</v>
       </c>
       <c r="B55">
@@ -2827,7 +2814,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>43824</v>
       </c>
       <c r="B56">
@@ -2841,7 +2828,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>43825</v>
       </c>
       <c r="B57">
@@ -2855,7 +2842,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>43826</v>
       </c>
       <c r="B58">
@@ -2869,7 +2856,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>43827</v>
       </c>
       <c r="B59">
@@ -2883,7 +2870,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>43828</v>
       </c>
       <c r="B60">
@@ -2897,7 +2884,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>43829</v>
       </c>
       <c r="B61">
@@ -2911,7 +2898,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>43830</v>
       </c>
       <c r="B62">
@@ -2934,7 +2921,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2946,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -2973,7 +2960,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2987,7 +2974,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3001,7 +2988,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -3015,7 +3002,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3029,7 +3016,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3043,7 +3030,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -3057,7 +3044,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3071,7 +3058,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3085,7 +3072,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -3099,7 +3086,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3113,7 +3100,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -3127,7 +3114,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -3141,7 +3128,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
@@ -3155,7 +3142,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
@@ -3169,7 +3156,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -3183,7 +3170,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -3197,7 +3184,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -3211,7 +3198,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -3225,7 +3212,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -3247,7 +3234,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3286,7 +3273,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -3315,7 +3302,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3336,7 +3323,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1">
         <v>8.3333333333333329E-2</v>
@@ -3357,7 +3344,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
         <v>0.125</v>
@@ -3378,7 +3365,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>0.16666666666666666</v>
@@ -3407,7 +3394,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
         <v>0.20833333333333334</v>
@@ -3428,7 +3415,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
         <v>0.25</v>
@@ -3449,7 +3436,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>0.29166666666666669</v>
@@ -3470,7 +3457,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1">
         <v>0.33333333333333331</v>
@@ -3499,7 +3486,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
         <v>0.375</v>
@@ -3520,7 +3507,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1">
         <v>0.41666666666666669</v>
@@ -3541,7 +3528,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1">
         <v>0.45833333333333331</v>
@@ -3562,7 +3549,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1">
         <v>0.5</v>
@@ -3591,7 +3578,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1">
         <v>0.54166666666666663</v>
@@ -3612,7 +3599,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1">
         <v>0.58333333333333337</v>
@@ -3633,7 +3620,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1">
         <v>0.625</v>
@@ -3654,7 +3641,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>0.66666666666666663</v>
@@ -3683,7 +3670,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>0.70833333333333337</v>
@@ -3704,7 +3691,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1">
         <v>0.75</v>
@@ -3725,7 +3712,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1">
         <v>0.79166666666666663</v>
@@ -3746,7 +3733,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
         <v>0.83333333333333337</v>
@@ -3775,7 +3762,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
         <v>0.875</v>
@@ -3796,7 +3783,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1">
         <v>0.91666666666666663</v>
@@ -3817,7 +3804,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>0.95833333333333337</v>
@@ -3838,7 +3825,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3867,7 +3854,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3888,7 +3875,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>8.3333333333333329E-2</v>
@@ -3909,7 +3896,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
         <v>0.125</v>
@@ -3930,7 +3917,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1">
         <v>0.16666666666666666</v>
@@ -3959,7 +3946,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
         <v>0.20833333333333334</v>
@@ -3980,7 +3967,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1">
         <v>0.25</v>
@@ -4001,7 +3988,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <v>0.29166666666666669</v>
@@ -4022,7 +4009,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1">
         <v>0.33333333333333331</v>
@@ -4051,7 +4038,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1">
         <v>0.375</v>
@@ -4072,7 +4059,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
         <v>0.41666666666666669</v>
@@ -4093,7 +4080,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1">
         <v>0.45833333333333331</v>
@@ -4114,7 +4101,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1">
         <v>0.5</v>
@@ -4143,7 +4130,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1">
         <v>0.54166666666666663</v>
@@ -4164,7 +4151,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1">
         <v>0.58333333333333337</v>
@@ -4185,7 +4172,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1">
         <v>0.625</v>
@@ -4206,7 +4193,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1">
         <v>0.66666666666666663</v>
@@ -4235,7 +4222,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1">
         <v>0.70833333333333337</v>
@@ -4256,7 +4243,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1">
         <v>0.75</v>
@@ -4277,7 +4264,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1">
         <v>0.79166666666666663</v>
@@ -4298,7 +4285,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B46" s="1">
         <v>0.83333333333333337</v>
@@ -4327,7 +4314,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1">
         <v>0.875</v>
@@ -4348,7 +4335,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
         <v>0.91666666666666663</v>
@@ -4369,7 +4356,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1">
         <v>0.95833333333333337</v>
@@ -4390,7 +4377,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -4419,7 +4406,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1">
         <v>4.1666666666666664E-2</v>
@@ -4440,7 +4427,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1">
         <v>8.3333333333333329E-2</v>
@@ -4461,7 +4448,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>0.125</v>
@@ -4482,7 +4469,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B54" s="1">
         <v>0.16666666666666666</v>
@@ -4511,7 +4498,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B55" s="1">
         <v>0.20833333333333334</v>
@@ -4532,7 +4519,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1">
         <v>0.25</v>
@@ -4553,7 +4540,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
         <v>0.29166666666666669</v>
@@ -4574,7 +4561,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1">
         <v>0.33333333333333331</v>
@@ -4603,7 +4590,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1">
         <v>0.375</v>
@@ -4624,7 +4611,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1">
         <v>0.41666666666666669</v>
@@ -4645,7 +4632,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1">
         <v>0.45833333333333331</v>
@@ -4666,7 +4653,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1">
         <v>0.5</v>
@@ -4695,7 +4682,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1">
         <v>0.54166666666666663</v>
@@ -4716,7 +4703,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>0.58333333333333337</v>
@@ -4737,7 +4724,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1">
         <v>0.625</v>
@@ -4758,7 +4745,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1">
         <v>0.66666666666666663</v>
@@ -4787,7 +4774,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
         <v>0.70833333333333337</v>
@@ -4808,7 +4795,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1">
         <v>0.75</v>
@@ -4829,7 +4816,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1">
         <v>0.79166666666666663</v>
@@ -4850,7 +4837,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1">
         <v>0.83333333333333337</v>
@@ -4879,7 +4866,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>0.875</v>
@@ -4900,7 +4887,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>0.91666666666666663</v>
@@ -4921,7 +4908,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>0.95833333333333337</v>
@@ -4942,7 +4929,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -4971,7 +4958,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
         <v>4.1666666666666664E-2</v>
@@ -4992,7 +4979,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1">
         <v>8.3333333333333329E-2</v>
@@ -5013,7 +5000,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B77" s="1">
         <v>0.125</v>
@@ -5034,7 +5021,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1">
         <v>0.16666666666666666</v>
@@ -5063,7 +5050,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1">
         <v>0.20833333333333334</v>
@@ -5084,7 +5071,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B80" s="1">
         <v>0.25</v>
@@ -5105,7 +5092,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1">
         <v>0.29166666666666669</v>
@@ -5126,7 +5113,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B82" s="1">
         <v>0.33333333333333331</v>
@@ -5155,7 +5142,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B83" s="1">
         <v>0.375</v>
@@ -5176,7 +5163,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1">
         <v>0.41666666666666669</v>
@@ -5197,7 +5184,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B85" s="1">
         <v>0.45833333333333331</v>
@@ -5218,7 +5205,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B86" s="1">
         <v>0.5</v>
@@ -5247,7 +5234,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B87" s="1">
         <v>0.54166666666666663</v>
@@ -5268,7 +5255,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B88" s="1">
         <v>0.58333333333333337</v>
@@ -5289,7 +5276,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B89" s="1">
         <v>0.625</v>
@@ -5310,7 +5297,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B90" s="1">
         <v>0.66666666666666663</v>
@@ -5339,7 +5326,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B91" s="1">
         <v>0.70833333333333337</v>
@@ -5360,7 +5347,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B92" s="1">
         <v>0.75</v>
@@ -5381,7 +5368,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B93" s="1">
         <v>0.79166666666666663</v>
@@ -5402,7 +5389,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B94" s="1">
         <v>0.83333333333333337</v>
@@ -5431,7 +5418,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B95" s="1">
         <v>0.875</v>
@@ -5452,7 +5439,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B96" s="1">
         <v>0.91666666666666663</v>
@@ -5473,7 +5460,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B97" s="1">
         <v>0.95833333333333337</v>
@@ -5494,23 +5481,69 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G78:G81"/>
     <mergeCell ref="G82:G85"/>
     <mergeCell ref="G86:G89"/>
     <mergeCell ref="G90:G93"/>
@@ -5527,69 +5560,23 @@
     <mergeCell ref="G70:G73"/>
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="H90:H93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5630,280 +5617,280 @@
       <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>28038.959999999999</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>14906.41</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>6885.35</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>14456.31</v>
       </c>
       <c r="F2">
         <v>64287.029999999992</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>393.35</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>953.41</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>589.41</v>
       </c>
       <c r="F3">
         <v>1936.17</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>18996.79</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>10198.64</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>10177.57</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>18885.599999999999</v>
       </c>
       <c r="F4">
         <v>58258.6</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>16311.3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>6203.15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4158.54</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>6876.81</v>
       </c>
       <c r="F5">
@@ -5911,19 +5898,19 @@
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>66920.160000000003</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>45550.59</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>52038.9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>91497.46</v>
       </c>
       <c r="F6">
@@ -5931,19 +5918,19 @@
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>12099.48</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4894.2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>5867.48</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>10554.28</v>
       </c>
       <c r="F7">
@@ -5951,19 +5938,19 @@
       </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>8366.36</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4129.4799999999996</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5682.59</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>10099.02</v>
       </c>
       <c r="F8">
@@ -5971,19 +5958,19 @@
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>745.23</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1905.62</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1129.3399999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2882.36</v>
       </c>
       <c r="F9">
@@ -5991,19 +5978,19 @@
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>80543.66</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>39309.519999999997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>32236.27</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>69619.39</v>
       </c>
       <c r="F10">
@@ -6011,19 +5998,19 @@
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>68971.77</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>31427.77</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>23061.15</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>41100.379999999997</v>
       </c>
       <c r="F11">
@@ -6031,19 +6018,19 @@
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>3436.92</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1514.67</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1287.8599999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>771.01</v>
       </c>
       <c r="F12">
@@ -6051,19 +6038,19 @@
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3522.82</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3656.97</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2010.28</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4864.22</v>
       </c>
       <c r="F13">
@@ -6071,19 +6058,19 @@
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>39973.74</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>14813.56</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>14307.73</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>23276.2</v>
       </c>
       <c r="F14">
@@ -6091,19 +6078,19 @@
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>20299.86</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>8658.57</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>6310.15</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>14650.39</v>
       </c>
       <c r="F15">
@@ -6111,19 +6098,19 @@
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>6258.35</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3903.26</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1602.91</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>4698.26</v>
       </c>
       <c r="F16">
@@ -6131,19 +6118,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10391.049999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4072.2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2725.6</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>7239.69</v>
       </c>
       <c r="F17">
@@ -6151,19 +6138,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>20764.72</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>12454.22</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>6813.58</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>10687.9</v>
       </c>
       <c r="F18">
@@ -6171,19 +6158,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>23685.03</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>12183.32</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>6098.94</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>14218.7</v>
       </c>
       <c r="F19">
@@ -6191,19 +6178,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2759.56</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>2525.61</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1960.56</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>2252.9699999999998</v>
       </c>
       <c r="F20">
@@ -6211,19 +6198,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>25559.759999999998</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>14541.73</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>12707.78</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>27647.27</v>
       </c>
       <c r="F21">
@@ -6231,19 +6218,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>7426.14</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>8207.16</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>9494.27</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>17715.560000000001</v>
       </c>
       <c r="F22">
@@ -6251,19 +6238,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>20695.73</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>13231.95</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>14158.93</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>22754.39</v>
       </c>
       <c r="F23">
@@ -6271,19 +6258,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>13260.18</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>5461.17</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>8330.98</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>9625.59</v>
       </c>
       <c r="F24">
@@ -6291,19 +6278,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>17797.68</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>7512.55</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>3441.87</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>5017.66</v>
       </c>
       <c r="F25">
@@ -6311,19 +6298,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>17683.419999999998</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>8135.31</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>9039.8799999999992</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>15696.47</v>
       </c>
       <c r="F26">
@@ -6331,19 +6318,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>1345.14</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>526.29999999999995</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>2263.0300000000002</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>1657.78</v>
       </c>
       <c r="F27">
@@ -6351,19 +6338,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>7138.41</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2967.1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2962.08</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>4337.13</v>
       </c>
       <c r="F28">
@@ -6371,19 +6358,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>12448</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>3209.46</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>4024.13</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>6654.46</v>
       </c>
       <c r="F29">
@@ -6391,19 +6378,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>3591.42</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>1456.17</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1910.79</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>2137.31</v>
       </c>
       <c r="F30">
@@ -6411,19 +6398,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>29342.21</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>14300.11</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>17688.36</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>31561.74</v>
       </c>
       <c r="F31">
@@ -6431,19 +6418,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>3065.33</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1735.23</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1835.18</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>3043.39</v>
       </c>
       <c r="F32">
@@ -6451,19 +6438,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>40341.74</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>28456.959999999999</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>31761.83</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>67264.289999999994</v>
       </c>
       <c r="F33">
@@ -6471,19 +6458,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>45278.81</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>26509.31</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>17400.59</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>25025.599999999999</v>
       </c>
       <c r="F34">
@@ -6491,19 +6478,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2667.39</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>630.98</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>733.87</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1941.61</v>
       </c>
       <c r="F35">
@@ -6511,19 +6498,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>35931.58</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>19576.84</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>11212.13</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>28354.51</v>
       </c>
       <c r="F36">
@@ -6531,19 +6518,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>12336.6</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>6853.89</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>4387.1499999999996</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>5508.55</v>
       </c>
       <c r="F37">
@@ -6551,19 +6538,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>7914.87</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>4026.79</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>5453.2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>7996.76</v>
       </c>
       <c r="F38">
@@ -6571,19 +6558,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>43684.73</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>28118.45</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>18078.37</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>40438.14</v>
       </c>
       <c r="F39">
@@ -6591,19 +6578,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1071.53</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>4439.67</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>3984.68</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1964.74</v>
       </c>
       <c r="F40">
@@ -6611,19 +6598,19 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>20049.78</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>9237.2900000000009</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>9024.65</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>11315.35</v>
       </c>
       <c r="F41">
@@ -6631,19 +6618,19 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>2942.59</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>574.44000000000005</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>534.97</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>831.78</v>
       </c>
       <c r="F42">
@@ -6651,19 +6638,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>38454.03</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>11611.81</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>11841.8</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>19582.78</v>
       </c>
       <c r="F43">
@@ -6671,19 +6658,19 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>94493.42</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>47948.36</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>46756.57</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>84074.47</v>
       </c>
       <c r="F44">
@@ -6691,19 +6678,19 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>1295.6199999999999</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>7346.53</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>7078.84</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>8727.9500000000007</v>
       </c>
       <c r="F45">
@@ -6711,19 +6698,19 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>26821.78</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>1309.0999999999999</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>610.28</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>1484.43</v>
       </c>
       <c r="F46">
@@ -6731,19 +6718,19 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>13485.53</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>15604.94</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>12669.84</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>24203.56</v>
       </c>
       <c r="F47">
@@ -6751,19 +6738,19 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>11615.47</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>7283.52</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>10609.74</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>15702.89</v>
       </c>
       <c r="F48">
@@ -6771,19 +6758,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>14352.9</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>4058.79</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>1725.84</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>5297.9</v>
       </c>
       <c r="F49">
@@ -6791,19 +6778,19 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>1350.65</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>9744.4500000000007</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>10462.379999999999</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>10528.14</v>
       </c>
       <c r="F50">
@@ -6811,16 +6798,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>1424.38</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>819.85</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>1704.95</v>
       </c>
       <c r="F51">
